--- a/data/processed/Date.xlsx
+++ b/data/processed/Date.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -995,6 +995,46 @@
         <v>45036</v>
       </c>
     </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <v>20230421</v>
+      </c>
+      <c r="B77" s="2">
+        <v>45037</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <v>20230424</v>
+      </c>
+      <c r="B78" s="2">
+        <v>45040</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <v>20230425</v>
+      </c>
+      <c r="B79" s="2">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <v>20230426</v>
+      </c>
+      <c r="B80" s="2">
+        <v>45042</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <v>20230427</v>
+      </c>
+      <c r="B81" s="2">
+        <v>45043</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/processed/Date.xlsx
+++ b/data/processed/Date.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1035,6 +1035,54 @@
         <v>45043</v>
       </c>
     </row>
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <v>20230428</v>
+      </c>
+      <c r="B82" s="2">
+        <v>45044</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83">
+        <v>20230501</v>
+      </c>
+      <c r="B83" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84">
+        <v>20230502</v>
+      </c>
+      <c r="B84" s="2">
+        <v>45048</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85">
+        <v>20230503</v>
+      </c>
+      <c r="B85" s="2">
+        <v>45049</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <v>20230504</v>
+      </c>
+      <c r="B86" s="2">
+        <v>45050</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <v>20230505</v>
+      </c>
+      <c r="B87" s="2">
+        <v>45051</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/processed/Date.xlsx
+++ b/data/processed/Date.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B87"/>
+  <dimension ref="A1:B119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1083,6 +1083,262 @@
         <v>45051</v>
       </c>
     </row>
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <v>20230508</v>
+      </c>
+      <c r="B88" s="2">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <v>20230509</v>
+      </c>
+      <c r="B89" s="2">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <v>20230510</v>
+      </c>
+      <c r="B90" s="2">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <v>20230511</v>
+      </c>
+      <c r="B91" s="2">
+        <v>45057</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <v>20230512</v>
+      </c>
+      <c r="B92" s="2">
+        <v>45058</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <v>20230515</v>
+      </c>
+      <c r="B93" s="2">
+        <v>45061</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <v>20230516</v>
+      </c>
+      <c r="B94" s="2">
+        <v>45062</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95">
+        <v>20230517</v>
+      </c>
+      <c r="B95" s="2">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <v>20230518</v>
+      </c>
+      <c r="B96" s="2">
+        <v>45064</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <v>20230519</v>
+      </c>
+      <c r="B97" s="2">
+        <v>45065</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <v>20230522</v>
+      </c>
+      <c r="B98" s="2">
+        <v>45068</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <v>20230523</v>
+      </c>
+      <c r="B99" s="2">
+        <v>45069</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <v>20230524</v>
+      </c>
+      <c r="B100" s="2">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101">
+        <v>20230525</v>
+      </c>
+      <c r="B101" s="2">
+        <v>45071</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102">
+        <v>20230526</v>
+      </c>
+      <c r="B102" s="2">
+        <v>45072</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103">
+        <v>20230530</v>
+      </c>
+      <c r="B103" s="2">
+        <v>45076</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104">
+        <v>20230531</v>
+      </c>
+      <c r="B104" s="2">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105">
+        <v>20230601</v>
+      </c>
+      <c r="B105" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106">
+        <v>20230602</v>
+      </c>
+      <c r="B106" s="2">
+        <v>45079</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107">
+        <v>20230605</v>
+      </c>
+      <c r="B107" s="2">
+        <v>45082</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108">
+        <v>20230606</v>
+      </c>
+      <c r="B108" s="2">
+        <v>45083</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109">
+        <v>20230607</v>
+      </c>
+      <c r="B109" s="2">
+        <v>45084</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110">
+        <v>20230608</v>
+      </c>
+      <c r="B110" s="2">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111">
+        <v>20230609</v>
+      </c>
+      <c r="B111" s="2">
+        <v>45086</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112">
+        <v>20230612</v>
+      </c>
+      <c r="B112" s="2">
+        <v>45089</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113">
+        <v>20230613</v>
+      </c>
+      <c r="B113" s="2">
+        <v>45090</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114">
+        <v>20230614</v>
+      </c>
+      <c r="B114" s="2">
+        <v>45091</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115">
+        <v>20230615</v>
+      </c>
+      <c r="B115" s="2">
+        <v>45092</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116">
+        <v>20230616</v>
+      </c>
+      <c r="B116" s="2">
+        <v>45093</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117">
+        <v>20230620</v>
+      </c>
+      <c r="B117" s="2">
+        <v>45097</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118">
+        <v>20230621</v>
+      </c>
+      <c r="B118" s="2">
+        <v>45098</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119">
+        <v>20230622</v>
+      </c>
+      <c r="B119" s="2">
+        <v>45099</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/processed/Date.xlsx
+++ b/data/processed/Date.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B119"/>
+  <dimension ref="A1:B128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1339,6 +1339,78 @@
         <v>45099</v>
       </c>
     </row>
+    <row r="120" spans="1:2">
+      <c r="A120">
+        <v>20230623</v>
+      </c>
+      <c r="B120" s="2">
+        <v>45100</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121">
+        <v>20230626</v>
+      </c>
+      <c r="B121" s="2">
+        <v>45103</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122">
+        <v>20230627</v>
+      </c>
+      <c r="B122" s="2">
+        <v>45104</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123">
+        <v>20230628</v>
+      </c>
+      <c r="B123" s="2">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124">
+        <v>20230629</v>
+      </c>
+      <c r="B124" s="2">
+        <v>45106</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125">
+        <v>20230630</v>
+      </c>
+      <c r="B125" s="2">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126">
+        <v>20230703</v>
+      </c>
+      <c r="B126" s="2">
+        <v>45110</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127">
+        <v>20230705</v>
+      </c>
+      <c r="B127" s="2">
+        <v>45112</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128">
+        <v>20230706</v>
+      </c>
+      <c r="B128" s="2">
+        <v>45113</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
